--- a/docs/MVB/铁八（HXD1）/CAB(HXD1)/铁八-KD2(HXD1).xlsx
+++ b/docs/MVB/铁八（HXD1）/CAB(HXD1)/铁八-KD2(HXD1).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
     <definedName name="OLE_LINK4" localSheetId="0">Sheet1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="111">
   <si>
     <t>信号名称</t>
   </si>
@@ -326,19 +326,79 @@
   <si>
     <t>制动系统诊断信息</t>
   </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>机车零速信号</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=零速，0=非零速</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>停放制动施加状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>停放制动隔离塞门状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无火塞门状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>II架空气制动隔离塞门开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>I架空气制动隔离塞门开关</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急制动隔离塞门状态</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=停放施加，0=未施加</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=隔离位，0=正常位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=无火位，0=正常位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1=隔离位，0=正常位</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1LSB=0.0625kPa)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,151 +435,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -538,194 +460,8 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -763,251 +499,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1040,57 +534,10 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1388,21 +835,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:L77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.125" style="2" customWidth="1"/>
@@ -1418,7 +864,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="56.25" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
@@ -1492,7 +938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -1525,7 +971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>20</v>
       </c>
@@ -1561,7 +1007,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1597,7 +1043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>26</v>
       </c>
@@ -1669,7 +1115,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>28</v>
       </c>
@@ -1705,7 +1151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
@@ -1741,7 +1187,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>32</v>
       </c>
@@ -1777,7 +1223,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1813,7 +1259,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>36</v>
       </c>
@@ -1849,7 +1295,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
         <v>36</v>
       </c>
@@ -1882,7 +1328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
         <v>37</v>
       </c>
@@ -1918,7 +1364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
         <v>39</v>
       </c>
@@ -1954,21 +1400,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="5" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="6">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16" s="6">
         <v>0</v>
@@ -1977,37 +1421,35 @@
       <c r="H16" s="8">
         <v>1</v>
       </c>
-      <c r="I16" s="14" t="b">
+      <c r="I16" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J16" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="6" t="b">
         <v>0</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F17" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="8">
@@ -2023,60 +1465,60 @@
         <v>0</v>
       </c>
       <c r="L17" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="6">
+        <v>15</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:12">
-      <c r="A18" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E19" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F19" s="6">
         <v>0</v>
@@ -2091,28 +1533,26 @@
       <c r="J19" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="K19" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C20" s="5"/>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E20" s="6">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F20" s="6">
         <v>0</v>
@@ -2127,31 +1567,26 @@
       <c r="J20" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="K20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>46</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E21" s="6">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F21" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="8">
@@ -2163,31 +1598,29 @@
       <c r="J21" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="K21" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E22" s="6">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F22" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="8">
@@ -2199,67 +1632,63 @@
       <c r="J22" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" ht="16.5" spans="1:12">
+      <c r="K22" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E23" s="6">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="F23" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="8">
         <v>1</v>
       </c>
-      <c r="I23" s="14" t="b">
+      <c r="I23" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J23" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="K23" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E24" s="6">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F24" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="8">
@@ -2271,31 +1700,29 @@
       <c r="J24" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="K24" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E25" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F25" s="6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="8">
@@ -2307,31 +1734,29 @@
       <c r="J25" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L25" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="K25" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E26" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F26" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="8">
@@ -2343,31 +1768,29 @@
       <c r="J26" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="K26" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E27" s="6">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F27" s="6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="8">
@@ -2379,35 +1802,32 @@
       <c r="J27" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="K27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="5" t="s">
-        <v>60</v>
+      <c r="K27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E28" s="6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F28" s="6">
-        <v>3</v>
-      </c>
-      <c r="G28" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="10"/>
       <c r="H28" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I28" s="2" t="b">
         <v>0</v>
@@ -2419,31 +1839,31 @@
         <v>1</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="6">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F29" s="6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I29" s="2" t="b">
         <v>0</v>
@@ -2455,33 +1875,33 @@
         <v>1</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E30" s="6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F30" s="6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="8">
-        <v>1</v>
-      </c>
-      <c r="I30" s="14" t="b">
+        <v>6.25E-2</v>
+      </c>
+      <c r="I30" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J30" s="6" t="b">
@@ -2491,31 +1911,31 @@
         <v>1</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E31" s="6">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="F31" s="6">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I31" s="2" t="b">
         <v>0</v>
@@ -2527,15 +1947,15 @@
         <v>1</v>
       </c>
       <c r="L31" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>19</v>
@@ -2544,14 +1964,14 @@
         <v>47</v>
       </c>
       <c r="E32" s="6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F32" s="6">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="8">
-        <v>1</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I32" s="2" t="b">
         <v>0</v>
@@ -2563,33 +1983,33 @@
         <v>1</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E33" s="6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F33" s="6">
         <v>0</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="8">
-        <v>1</v>
-      </c>
-      <c r="I33" s="2" t="b">
+        <v>1E-3</v>
+      </c>
+      <c r="I33" s="14" t="b">
         <v>0</v>
       </c>
       <c r="J33" s="6" t="b">
@@ -2599,15 +2019,15 @@
         <v>1</v>
       </c>
       <c r="L33" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>19</v>
@@ -2616,7 +2036,7 @@
         <v>47</v>
       </c>
       <c r="E34" s="6">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F34" s="6">
         <v>0</v>
@@ -2638,9 +2058,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>21</v>
@@ -2652,10 +2072,10 @@
         <v>47</v>
       </c>
       <c r="E35" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F35" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="8">
@@ -2671,12 +2091,12 @@
         <v>1</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>21</v>
@@ -2688,10 +2108,10 @@
         <v>47</v>
       </c>
       <c r="E36" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F36" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="8">
@@ -2710,9 +2130,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>21</v>
@@ -2724,16 +2144,16 @@
         <v>47</v>
       </c>
       <c r="E37" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F37" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="8">
         <v>1</v>
       </c>
-      <c r="I37" s="14" t="b">
+      <c r="I37" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J37" s="6" t="b">
@@ -2746,9 +2166,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>21</v>
@@ -2760,10 +2180,10 @@
         <v>47</v>
       </c>
       <c r="E38" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F38" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="8">
@@ -2782,9 +2202,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>21</v>
@@ -2796,10 +2216,10 @@
         <v>47</v>
       </c>
       <c r="E39" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F39" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="8">
@@ -2818,9 +2238,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>21</v>
@@ -2832,16 +2252,16 @@
         <v>47</v>
       </c>
       <c r="E40" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F40" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="8">
         <v>1</v>
       </c>
-      <c r="I40" s="2" t="b">
+      <c r="I40" s="14" t="b">
         <v>0</v>
       </c>
       <c r="J40" s="6" t="b">
@@ -2851,12 +2271,12 @@
         <v>1</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>21</v>
@@ -2868,10 +2288,10 @@
         <v>47</v>
       </c>
       <c r="E41" s="6">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F41" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="8">
@@ -2887,12 +2307,12 @@
         <v>1</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" ht="54" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>21</v>
@@ -2904,10 +2324,10 @@
         <v>47</v>
       </c>
       <c r="E42" s="6">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F42" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G42" s="7"/>
       <c r="H42" s="8">
@@ -2923,27 +2343,27 @@
         <v>1</v>
       </c>
       <c r="L42" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="43" ht="27" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E43" s="6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F43" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G43" s="7"/>
       <c r="H43" s="8">
@@ -2959,12 +2379,12 @@
         <v>1</v>
       </c>
       <c r="L43" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" ht="27" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>21</v>
@@ -2976,16 +2396,16 @@
         <v>47</v>
       </c>
       <c r="E44" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F44" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="8">
         <v>1</v>
       </c>
-      <c r="I44" s="14" t="b">
+      <c r="I44" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J44" s="6" t="b">
@@ -2995,12 +2415,12 @@
         <v>1</v>
       </c>
       <c r="L44" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>21</v>
@@ -3012,10 +2432,10 @@
         <v>47</v>
       </c>
       <c r="E45" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F45" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="8">
@@ -3034,9 +2454,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>21</v>
@@ -3048,10 +2468,10 @@
         <v>47</v>
       </c>
       <c r="E46" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F46" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="8">
@@ -3070,9 +2490,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>21</v>
@@ -3084,16 +2504,16 @@
         <v>47</v>
       </c>
       <c r="E47" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F47" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="8">
         <v>1</v>
       </c>
-      <c r="I47" s="2" t="b">
+      <c r="I47" s="14" t="b">
         <v>0</v>
       </c>
       <c r="J47" s="6" t="b">
@@ -3106,9 +2526,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>21</v>
@@ -3120,10 +2540,10 @@
         <v>47</v>
       </c>
       <c r="E48" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F48" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="8">
@@ -3139,12 +2559,12 @@
         <v>1</v>
       </c>
       <c r="L48" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>21</v>
@@ -3156,10 +2576,10 @@
         <v>47</v>
       </c>
       <c r="E49" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F49" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="8">
@@ -3175,12 +2595,12 @@
         <v>1</v>
       </c>
       <c r="L49" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>21</v>
@@ -3192,10 +2612,10 @@
         <v>47</v>
       </c>
       <c r="E50" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F50" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="8">
@@ -3211,12 +2631,12 @@
         <v>1</v>
       </c>
       <c r="L50" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="s">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>21</v>
@@ -3228,16 +2648,16 @@
         <v>47</v>
       </c>
       <c r="E51" s="6">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="8">
         <v>1</v>
       </c>
-      <c r="I51" s="14" t="b">
+      <c r="I51" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J51" s="6" t="b">
@@ -3247,12 +2667,12 @@
         <v>1</v>
       </c>
       <c r="L51" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="54" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>21</v>
@@ -3264,10 +2684,10 @@
         <v>47</v>
       </c>
       <c r="E52" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F52" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="8">
@@ -3283,12 +2703,12 @@
         <v>1</v>
       </c>
       <c r="L52" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>21</v>
@@ -3300,10 +2720,10 @@
         <v>47</v>
       </c>
       <c r="E53" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F53" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="8">
@@ -3319,12 +2739,12 @@
         <v>1</v>
       </c>
       <c r="L53" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>21</v>
@@ -3336,16 +2756,16 @@
         <v>47</v>
       </c>
       <c r="E54" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F54" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="8">
         <v>1</v>
       </c>
-      <c r="I54" s="2" t="b">
+      <c r="I54" s="14" t="b">
         <v>0</v>
       </c>
       <c r="J54" s="6" t="b">
@@ -3355,12 +2775,12 @@
         <v>1</v>
       </c>
       <c r="L54" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>21</v>
@@ -3372,10 +2792,10 @@
         <v>47</v>
       </c>
       <c r="E55" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F55" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="8">
@@ -3394,9 +2814,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>21</v>
@@ -3408,10 +2828,10 @@
         <v>47</v>
       </c>
       <c r="E56" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F56" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G56" s="7"/>
       <c r="H56" s="8">
@@ -3430,9 +2850,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>21</v>
@@ -3444,10 +2864,10 @@
         <v>47</v>
       </c>
       <c r="E57" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F57" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G57" s="7"/>
       <c r="H57" s="8">
@@ -3463,12 +2883,12 @@
         <v>1</v>
       </c>
       <c r="L57" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>21</v>
@@ -3480,16 +2900,16 @@
         <v>47</v>
       </c>
       <c r="E58" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F58" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G58" s="7"/>
       <c r="H58" s="8">
         <v>1</v>
       </c>
-      <c r="I58" s="14" t="b">
+      <c r="I58" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J58" s="6" t="b">
@@ -3499,12 +2919,12 @@
         <v>1</v>
       </c>
       <c r="L58" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:12">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>21</v>
@@ -3516,10 +2936,10 @@
         <v>47</v>
       </c>
       <c r="E59" s="6">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F59" s="6">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G59" s="7"/>
       <c r="H59" s="8">
@@ -3535,12 +2955,12 @@
         <v>1</v>
       </c>
       <c r="L59" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="60" spans="1:12">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>21</v>
@@ -3552,10 +2972,10 @@
         <v>47</v>
       </c>
       <c r="E60" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="8">
@@ -3571,12 +2991,12 @@
         <v>1</v>
       </c>
       <c r="L60" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>21</v>
@@ -3588,16 +3008,16 @@
         <v>47</v>
       </c>
       <c r="E61" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="8">
         <v>1</v>
       </c>
-      <c r="I61" s="2" t="b">
+      <c r="I61" s="14" t="b">
         <v>0</v>
       </c>
       <c r="J61" s="6" t="b">
@@ -3607,12 +3027,12 @@
         <v>1</v>
       </c>
       <c r="L61" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>21</v>
@@ -3624,10 +3044,10 @@
         <v>47</v>
       </c>
       <c r="E62" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" s="6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G62" s="7"/>
       <c r="H62" s="8">
@@ -3643,12 +3063,12 @@
         <v>1</v>
       </c>
       <c r="L62" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>21</v>
@@ -3660,10 +3080,10 @@
         <v>47</v>
       </c>
       <c r="E63" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F63" s="6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="8">
@@ -3679,12 +3099,12 @@
         <v>1</v>
       </c>
       <c r="L63" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="s">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>21</v>
@@ -3696,10 +3116,10 @@
         <v>47</v>
       </c>
       <c r="E64" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F64" s="6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G64" s="7"/>
       <c r="H64" s="8">
@@ -3715,12 +3135,12 @@
         <v>1</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>21</v>
@@ -3732,16 +3152,16 @@
         <v>47</v>
       </c>
       <c r="E65" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F65" s="6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G65" s="7"/>
       <c r="H65" s="8">
         <v>1</v>
       </c>
-      <c r="I65" s="14" t="b">
+      <c r="I65" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J65" s="6" t="b">
@@ -3754,12 +3174,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>19</v>
@@ -3768,10 +3188,10 @@
         <v>47</v>
       </c>
       <c r="E66" s="6">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F66" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G66" s="7"/>
       <c r="H66" s="8">
@@ -3790,7 +3210,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="s">
         <v>36</v>
       </c>
@@ -3804,10 +3224,10 @@
         <v>47</v>
       </c>
       <c r="E67" s="6">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F67" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="8">
@@ -3823,12 +3243,12 @@
         <v>1</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>21</v>
@@ -3840,16 +3260,16 @@
         <v>47</v>
       </c>
       <c r="E68" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F68" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="8">
         <v>1</v>
       </c>
-      <c r="I68" s="2" t="b">
+      <c r="I68" s="14" t="b">
         <v>0</v>
       </c>
       <c r="J68" s="6" t="b">
@@ -3859,12 +3279,12 @@
         <v>1</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>21</v>
@@ -3876,10 +3296,10 @@
         <v>47</v>
       </c>
       <c r="E69" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F69" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="8">
@@ -3895,12 +3315,12 @@
         <v>1</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="s">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="B70" s="5" t="s">
         <v>21</v>
@@ -3912,10 +3332,10 @@
         <v>47</v>
       </c>
       <c r="E70" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F70" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="8">
@@ -3931,10 +3351,10 @@
         <v>1</v>
       </c>
       <c r="L70" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="s">
         <v>36</v>
       </c>
@@ -3948,10 +3368,10 @@
         <v>47</v>
       </c>
       <c r="E71" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F71" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="8">
@@ -3967,10 +3387,10 @@
         <v>1</v>
       </c>
       <c r="L71" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="s">
         <v>36</v>
       </c>
@@ -3984,16 +3404,16 @@
         <v>47</v>
       </c>
       <c r="E72" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F72" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="8">
         <v>1</v>
       </c>
-      <c r="I72" s="14" t="b">
+      <c r="I72" s="2" t="b">
         <v>0</v>
       </c>
       <c r="J72" s="6" t="b">
@@ -4003,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="L72" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="s">
         <v>36</v>
       </c>
@@ -4020,10 +3440,10 @@
         <v>47</v>
       </c>
       <c r="E73" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F73" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="8">
@@ -4039,10 +3459,10 @@
         <v>1</v>
       </c>
       <c r="L73" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="74" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="s">
         <v>36</v>
       </c>
@@ -4056,10 +3476,10 @@
         <v>47</v>
       </c>
       <c r="E74" s="6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F74" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="8">
@@ -4075,15 +3495,15 @@
         <v>1</v>
       </c>
       <c r="L74" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="75" spans="1:12">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="s">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>19</v>
@@ -4092,20 +3512,20 @@
         <v>47</v>
       </c>
       <c r="E75" s="6">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F75" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="8">
         <v>1</v>
       </c>
-      <c r="I75" s="2" t="b">
+      <c r="I75" s="14" t="b">
         <v>0</v>
       </c>
       <c r="J75" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K75" s="1" t="b">
         <v>1</v>
@@ -4114,12 +3534,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>19</v>
@@ -4128,7 +3548,7 @@
         <v>47</v>
       </c>
       <c r="E76" s="6">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F76" s="6">
         <v>0</v>
@@ -4150,12 +3570,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>19</v>
@@ -4164,7 +3584,7 @@
         <v>47</v>
       </c>
       <c r="E77" s="6">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F77" s="6">
         <v>0</v>
@@ -4183,17 +3603,377 @@
         <v>1</v>
       </c>
       <c r="L77" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E78" s="6">
+        <v>22</v>
+      </c>
+      <c r="F78" s="6">
+        <v>1</v>
+      </c>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8">
+        <v>1</v>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K78" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E79" s="6">
+        <v>22</v>
+      </c>
+      <c r="F79" s="6">
+        <v>2</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="8">
+        <v>1</v>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K79" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="6">
+        <v>22</v>
+      </c>
+      <c r="F80" s="6">
+        <v>3</v>
+      </c>
+      <c r="G80" s="7"/>
+      <c r="H80" s="8">
+        <v>1</v>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K80" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A81" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="6">
+        <v>22</v>
+      </c>
+      <c r="F81" s="6">
+        <v>4</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="8">
+        <v>1</v>
+      </c>
+      <c r="I81" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K81" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="6">
+        <v>22</v>
+      </c>
+      <c r="F82" s="6">
+        <v>5</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="8">
+        <v>1</v>
+      </c>
+      <c r="I82" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K82" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="6">
+        <v>22</v>
+      </c>
+      <c r="F83" s="6">
+        <v>6</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="8">
+        <v>1</v>
+      </c>
+      <c r="I83" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K83" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" s="6">
+        <v>22</v>
+      </c>
+      <c r="F84" s="6">
+        <v>7</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="8">
+        <v>1</v>
+      </c>
+      <c r="I84" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K84" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A85" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="6">
+        <v>23</v>
+      </c>
+      <c r="F85" s="6">
+        <v>0</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="8">
+        <v>1</v>
+      </c>
+      <c r="I85" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A86" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E86" s="6">
+        <v>24</v>
+      </c>
+      <c r="F86" s="6">
+        <v>0</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="8">
+        <v>1</v>
+      </c>
+      <c r="I86" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K86" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A87" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E87" s="6">
+        <v>28</v>
+      </c>
+      <c r="F87" s="6">
+        <v>0</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="8">
+        <v>1</v>
+      </c>
+      <c r="I87" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J87" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="K87" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L87" s="5" t="s">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I15 I17:I22 I24:I29 I31:I36 I38:I43 I45:I50 I52:I57 I59:I64 I66:I71 I73:I77 K18:K77">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K28:K87 I2:I17 I34:I39 I41:I46 I48:I53 I55:I60 I62:I67 I69:I74 I76:I81 I83:I87 I19:I32">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>